--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>Gpc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.00921883268133</v>
+        <v>9.088202666666666</v>
       </c>
       <c r="N2">
-        <v>6.00921883268133</v>
+        <v>27.264608</v>
       </c>
       <c r="O2">
-        <v>0.1340605903116916</v>
+        <v>0.184534923951364</v>
       </c>
       <c r="P2">
-        <v>0.1340605903116916</v>
+        <v>0.1845349239513639</v>
       </c>
       <c r="Q2">
-        <v>67.90757172150037</v>
+        <v>3.616913809077333</v>
       </c>
       <c r="R2">
-        <v>67.90757172150037</v>
+        <v>32.552224281696</v>
       </c>
       <c r="S2">
-        <v>0.1124823595257445</v>
+        <v>0.00495102901288415</v>
       </c>
       <c r="T2">
-        <v>0.1124823595257445</v>
+        <v>0.004951029012884149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.2637661089679</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N3">
-        <v>26.2637661089679</v>
+        <v>78.840599</v>
       </c>
       <c r="O3">
-        <v>0.5859224112837614</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="P3">
-        <v>0.5859224112837614</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="Q3">
-        <v>296.7954122458946</v>
+        <v>10.45896758314033</v>
       </c>
       <c r="R3">
-        <v>296.7954122458946</v>
+        <v>94.13070824826301</v>
       </c>
       <c r="S3">
-        <v>0.4916130472570613</v>
+        <v>0.01431680562002451</v>
       </c>
       <c r="T3">
-        <v>0.4916130472570613</v>
+        <v>0.01431680562002451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.5516635155138</v>
+        <v>0.013465</v>
       </c>
       <c r="N4">
-        <v>12.5516635155138</v>
+        <v>0.040395</v>
       </c>
       <c r="O4">
-        <v>0.280016998404547</v>
+        <v>0.0002734052971902383</v>
       </c>
       <c r="P4">
-        <v>0.280016998404547</v>
+        <v>0.0002734052971902382</v>
       </c>
       <c r="Q4">
-        <v>141.8408971509481</v>
+        <v>0.005358787235</v>
       </c>
       <c r="R4">
-        <v>141.8408971509481</v>
+        <v>0.048229085115</v>
       </c>
       <c r="S4">
-        <v>0.2349458003625782</v>
+        <v>7.335400420041076E-06</v>
       </c>
       <c r="T4">
-        <v>0.2349458003625782</v>
+        <v>7.335400420041075E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.16786182214407</v>
+        <v>0.397979</v>
       </c>
       <c r="H5">
-        <v>2.16786182214407</v>
+        <v>1.193937</v>
       </c>
       <c r="I5">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J5">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.00921883268133</v>
+        <v>0.08148366666666666</v>
       </c>
       <c r="N5">
-        <v>6.00921883268133</v>
+        <v>0.244451</v>
       </c>
       <c r="O5">
-        <v>0.1340605903116916</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="P5">
-        <v>0.1340605903116916</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="Q5">
-        <v>13.02715608827901</v>
+        <v>0.03242878817633334</v>
       </c>
       <c r="R5">
-        <v>13.02715608827901</v>
+        <v>0.291859093587</v>
       </c>
       <c r="S5">
-        <v>0.0215782307859471</v>
+        <v>4.439029503848152E-05</v>
       </c>
       <c r="T5">
-        <v>0.0215782307859471</v>
+        <v>4.439029503848151E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.16786182214407</v>
+        <v>0.397979</v>
       </c>
       <c r="H6">
-        <v>2.16786182214407</v>
+        <v>1.193937</v>
       </c>
       <c r="I6">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J6">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.2637661089679</v>
+        <v>13.78587766666667</v>
       </c>
       <c r="N6">
-        <v>26.2637661089679</v>
+        <v>41.357633</v>
       </c>
       <c r="O6">
-        <v>0.5859224112837614</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="P6">
-        <v>0.5859224112837614</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="Q6">
-        <v>56.93621585335282</v>
+        <v>5.486489807902333</v>
       </c>
       <c r="R6">
-        <v>56.93621585335282</v>
+        <v>49.378408271121</v>
       </c>
       <c r="S6">
-        <v>0.09430936402670007</v>
+        <v>0.007510206671125255</v>
       </c>
       <c r="T6">
-        <v>0.09430936402670007</v>
+        <v>0.007510206671125255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H7">
+        <v>34.046756</v>
+      </c>
+      <c r="I7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N7">
+        <v>27.264608</v>
+      </c>
+      <c r="O7">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P7">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q7">
+        <v>103.1412728901831</v>
+      </c>
+      <c r="R7">
+        <v>928.271456011648</v>
+      </c>
+      <c r="S7">
+        <v>0.1411854032085341</v>
+      </c>
+      <c r="T7">
+        <v>0.141185403208534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H8">
+        <v>34.046756</v>
+      </c>
+      <c r="I8">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J8">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N8">
+        <v>78.840599</v>
+      </c>
+      <c r="O8">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P8">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q8">
+        <v>298.2518485607604</v>
+      </c>
+      <c r="R8">
+        <v>2684.266637046844</v>
+      </c>
+      <c r="S8">
+        <v>0.4082634072353928</v>
+      </c>
+      <c r="T8">
+        <v>0.4082634072353928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H9">
+        <v>34.046756</v>
+      </c>
+      <c r="I9">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J9">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.013465</v>
+      </c>
+      <c r="N9">
+        <v>0.040395</v>
+      </c>
+      <c r="O9">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P9">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q9">
+        <v>0.1528131898466667</v>
+      </c>
+      <c r="R9">
+        <v>1.37531870862</v>
+      </c>
+      <c r="S9">
+        <v>0.0002091790339552556</v>
+      </c>
+      <c r="T9">
+        <v>0.0002091790339552556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H10">
+        <v>34.046756</v>
+      </c>
+      <c r="I10">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J10">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.244451</v>
+      </c>
+      <c r="O10">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P10">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q10">
+        <v>0.9247515056617779</v>
+      </c>
+      <c r="R10">
+        <v>8.322763550956001</v>
+      </c>
+      <c r="S10">
+        <v>0.001265850328738611</v>
+      </c>
+      <c r="T10">
+        <v>0.001265850328738611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.5516635155138</v>
-      </c>
-      <c r="N7">
-        <v>12.5516635155138</v>
-      </c>
-      <c r="O7">
-        <v>0.280016998404547</v>
-      </c>
-      <c r="P7">
-        <v>0.280016998404547</v>
-      </c>
-      <c r="Q7">
-        <v>27.21027213968099</v>
-      </c>
-      <c r="R7">
-        <v>27.21027213968099</v>
-      </c>
-      <c r="S7">
-        <v>0.04507119804196882</v>
-      </c>
-      <c r="T7">
-        <v>0.04507119804196882</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H11">
+        <v>34.046756</v>
+      </c>
+      <c r="I11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N11">
+        <v>41.357633</v>
+      </c>
+      <c r="O11">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P11">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q11">
+        <v>156.4548043876165</v>
+      </c>
+      <c r="R11">
+        <v>1408.093239488548</v>
+      </c>
+      <c r="S11">
+        <v>0.2141638746779552</v>
+      </c>
+      <c r="T11">
+        <v>0.2141638746779552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.119535</v>
+      </c>
+      <c r="H12">
+        <v>0.358605</v>
+      </c>
+      <c r="I12">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J12">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N12">
+        <v>27.264608</v>
+      </c>
+      <c r="O12">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P12">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q12">
+        <v>1.08635830576</v>
+      </c>
+      <c r="R12">
+        <v>9.777224751839999</v>
+      </c>
+      <c r="S12">
+        <v>0.001487066536312486</v>
+      </c>
+      <c r="T12">
+        <v>0.001487066536312486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.119535</v>
+      </c>
+      <c r="H13">
+        <v>0.358605</v>
+      </c>
+      <c r="I13">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J13">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N13">
+        <v>78.840599</v>
+      </c>
+      <c r="O13">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P13">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q13">
+        <v>3.141403667155</v>
+      </c>
+      <c r="R13">
+        <v>28.272633004395</v>
+      </c>
+      <c r="S13">
+        <v>0.004300124779924642</v>
+      </c>
+      <c r="T13">
+        <v>0.004300124779924643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.119535</v>
+      </c>
+      <c r="H14">
+        <v>0.358605</v>
+      </c>
+      <c r="I14">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J14">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.013465</v>
+      </c>
+      <c r="N14">
+        <v>0.040395</v>
+      </c>
+      <c r="O14">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P14">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q14">
+        <v>0.001609538775</v>
+      </c>
+      <c r="R14">
+        <v>0.014485848975</v>
+      </c>
+      <c r="S14">
+        <v>2.203224514885484E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.203224514885484E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.119535</v>
+      </c>
+      <c r="H15">
+        <v>0.358605</v>
+      </c>
+      <c r="I15">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J15">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.244451</v>
+      </c>
+      <c r="O15">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P15">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q15">
+        <v>0.009740150095</v>
+      </c>
+      <c r="R15">
+        <v>0.087661350855</v>
+      </c>
+      <c r="S15">
+        <v>1.333284901320142E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.333284901320142E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.119535</v>
+      </c>
+      <c r="H16">
+        <v>0.358605</v>
+      </c>
+      <c r="I16">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J16">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N16">
+        <v>41.357633</v>
+      </c>
+      <c r="O16">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P16">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q16">
+        <v>1.647894886885</v>
+      </c>
+      <c r="R16">
+        <v>14.831053981965</v>
+      </c>
+      <c r="S16">
+        <v>0.002255728454096717</v>
+      </c>
+      <c r="T16">
+        <v>0.002255728454096717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.372081</v>
+      </c>
+      <c r="I17">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J17">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N17">
+        <v>27.264608</v>
+      </c>
+      <c r="O17">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P17">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q17">
+        <v>4.156583401027556</v>
+      </c>
+      <c r="R17">
+        <v>37.409250609248</v>
+      </c>
+      <c r="S17">
+        <v>0.005689758202507418</v>
+      </c>
+      <c r="T17">
+        <v>0.005689758202507416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.372081</v>
+      </c>
+      <c r="I18">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J18">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N18">
+        <v>78.840599</v>
+      </c>
+      <c r="O18">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P18">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q18">
+        <v>12.01952087961322</v>
+      </c>
+      <c r="R18">
+        <v>108.175687916519</v>
+      </c>
+      <c r="S18">
+        <v>0.01645297613854738</v>
+      </c>
+      <c r="T18">
+        <v>0.01645297613854738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.372081</v>
+      </c>
+      <c r="I19">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J19">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.013465</v>
+      </c>
+      <c r="N19">
+        <v>0.040395</v>
+      </c>
+      <c r="O19">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P19">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q19">
+        <v>0.006158356888333333</v>
+      </c>
+      <c r="R19">
+        <v>0.05542521199500001</v>
+      </c>
+      <c r="S19">
+        <v>8.429894997583942E-06</v>
+      </c>
+      <c r="T19">
+        <v>8.429894997583942E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.372081</v>
+      </c>
+      <c r="I20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.244451</v>
+      </c>
+      <c r="O20">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P20">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q20">
+        <v>0.03726739694788889</v>
+      </c>
+      <c r="R20">
+        <v>0.335406572531</v>
+      </c>
+      <c r="S20">
+        <v>5.101364678931532E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.101364678931532E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.372081</v>
+      </c>
+      <c r="I21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N21">
+        <v>41.357633</v>
+      </c>
+      <c r="O21">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P21">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q21">
+        <v>6.305113604919223</v>
+      </c>
+      <c r="R21">
+        <v>56.746022444273</v>
+      </c>
+      <c r="S21">
+        <v>0.008630783600411253</v>
+      </c>
+      <c r="T21">
+        <v>0.008630783600411253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.391799</v>
+      </c>
+      <c r="I22">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J22">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N22">
+        <v>27.264608</v>
+      </c>
+      <c r="O22">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P22">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q22">
+        <v>1.186916238865778</v>
+      </c>
+      <c r="R22">
+        <v>10.682246149792</v>
+      </c>
+      <c r="S22">
+        <v>0.001624715723039823</v>
+      </c>
+      <c r="T22">
+        <v>0.001624715723039823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.391799</v>
+      </c>
+      <c r="I23">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J23">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N23">
+        <v>78.840599</v>
+      </c>
+      <c r="O23">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P23">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q23">
+        <v>3.432185316400111</v>
+      </c>
+      <c r="R23">
+        <v>30.889667847601</v>
+      </c>
+      <c r="S23">
+        <v>0.004698162570654885</v>
+      </c>
+      <c r="T23">
+        <v>0.004698162570654885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.391799</v>
+      </c>
+      <c r="I24">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J24">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.013465</v>
+      </c>
+      <c r="N24">
+        <v>0.040395</v>
+      </c>
+      <c r="O24">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P24">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q24">
+        <v>0.001758524511666667</v>
+      </c>
+      <c r="R24">
+        <v>0.015826720605</v>
+      </c>
+      <c r="S24">
+        <v>2.40716432204687E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.407164322046869E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.391799</v>
+      </c>
+      <c r="I25">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J25">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.244451</v>
+      </c>
+      <c r="O25">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P25">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q25">
+        <v>0.01064173970544444</v>
+      </c>
+      <c r="R25">
+        <v>0.09577565734900001</v>
+      </c>
+      <c r="S25">
+        <v>1.456699407571925E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.456699407571925E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N26">
+        <v>41.357633</v>
+      </c>
+      <c r="O26">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P26">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q26">
+        <v>1.800431027974111</v>
+      </c>
+      <c r="R26">
+        <v>16.203879251767</v>
+      </c>
+      <c r="S26">
+        <v>0.002464528248592851</v>
+      </c>
+      <c r="T26">
+        <v>0.002464528248592851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H27">
+        <v>7.137283</v>
+      </c>
+      <c r="I27">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J27">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N27">
+        <v>27.264608</v>
+      </c>
+      <c r="O27">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P27">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q27">
+        <v>21.62169146445155</v>
+      </c>
+      <c r="R27">
+        <v>194.595223180064</v>
+      </c>
+      <c r="S27">
+        <v>0.02959695126808603</v>
+      </c>
+      <c r="T27">
+        <v>0.02959695126808602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H28">
+        <v>7.137283</v>
+      </c>
+      <c r="I28">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J28">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N28">
+        <v>78.840599</v>
+      </c>
+      <c r="O28">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P28">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q28">
+        <v>62.52307410583521</v>
+      </c>
+      <c r="R28">
+        <v>562.707666952517</v>
+      </c>
+      <c r="S28">
+        <v>0.08558499599736448</v>
+      </c>
+      <c r="T28">
+        <v>0.08558499599736449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H29">
+        <v>7.137283</v>
+      </c>
+      <c r="I29">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J29">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.013465</v>
+      </c>
+      <c r="N29">
+        <v>0.040395</v>
+      </c>
+      <c r="O29">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P29">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q29">
+        <v>0.03203450519833333</v>
+      </c>
+      <c r="R29">
+        <v>0.288310546785</v>
+      </c>
+      <c r="S29">
+        <v>4.385057898042528E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.385057898042528E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H30">
+        <v>7.137283</v>
+      </c>
+      <c r="I30">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J30">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.244451</v>
+      </c>
+      <c r="O30">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P30">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q30">
+        <v>0.1938573296258889</v>
+      </c>
+      <c r="R30">
+        <v>1.744715966633</v>
+      </c>
+      <c r="S30">
+        <v>0.0002653624924456973</v>
+      </c>
+      <c r="T30">
+        <v>0.0002653624924456973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H31">
+        <v>7.137283</v>
+      </c>
+      <c r="I31">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J31">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N31">
+        <v>41.357633</v>
+      </c>
+      <c r="O31">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P31">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q31">
+        <v>32.79790343679322</v>
+      </c>
+      <c r="R31">
+        <v>295.181130931139</v>
+      </c>
+      <c r="S31">
+        <v>0.04489556015125493</v>
+      </c>
+      <c r="T31">
+        <v>0.04489556015125494</v>
       </c>
     </row>
   </sheetData>
